--- a/daycare/family_excel.xlsx
+++ b/daycare/family_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>January</t>
   </si>
@@ -52,10 +52,7 @@
     <t>December</t>
   </si>
   <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>uni2</t>
+    <t>Uni</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +440,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
